--- a/SubjectsClassification.xlsx
+++ b/SubjectsClassification.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yousif Ennwa\Desktop\Data_Analysis\ML-Samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C057C55B-AD9E-48B7-920C-A238C02FD02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314476BD-BCDE-4300-8CDD-9D6A30BCE903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{BBC4A9F3-FF96-429D-8CD8-244E882A6FA2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{BBC4A9F3-FF96-429D-8CD8-244E882A6FA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sentiments_Arabic" sheetId="1" r:id="rId1"/>
-    <sheet name="Dictionary" sheetId="2" r:id="rId2"/>
-    <sheet name="Sentiments_Analysis" sheetId="3" r:id="rId3"/>
+    <sheet name="Sentiments_Analysis" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
   <si>
     <t>Statement</t>
   </si>
@@ -70,54 +69,6 @@
     <t>المصري يفوز على</t>
   </si>
   <si>
-    <t>Word</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>أكل</t>
-  </si>
-  <si>
-    <t>شرب</t>
-  </si>
-  <si>
-    <t>مضغ</t>
-  </si>
-  <si>
-    <t>لعب</t>
-  </si>
-  <si>
-    <t>يشرب</t>
-  </si>
-  <si>
-    <t>تأكل</t>
-  </si>
-  <si>
-    <t>نام</t>
-  </si>
-  <si>
-    <t>كل</t>
-  </si>
-  <si>
-    <t>اشرب</t>
-  </si>
-  <si>
-    <t>امضغ</t>
-  </si>
-  <si>
-    <t>ضع</t>
-  </si>
-  <si>
-    <t>أمر</t>
-  </si>
-  <si>
-    <t>ماضي</t>
-  </si>
-  <si>
-    <t>مضارع</t>
-  </si>
-  <si>
     <t>Sentence</t>
   </si>
   <si>
@@ -155,6 +106,30 @@
   </si>
   <si>
     <t>أنت مبتفهمش</t>
+  </si>
+  <si>
+    <t>برشلونة تخسر مباراتها أمام البايرن</t>
+  </si>
+  <si>
+    <t>خسارة فريق السودان أمام السنغال</t>
+  </si>
+  <si>
+    <t>You are stupid</t>
+  </si>
+  <si>
+    <t>Never, I will not</t>
+  </si>
+  <si>
+    <t>Excellent dear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good </t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Never</t>
   </si>
 </sst>
 </file>
@@ -540,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A43B67C-AAA4-4A02-8045-E6123E9929F6}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,7 +585,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -618,7 +593,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -626,10 +601,26 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -638,123 +629,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F384ED3C-1D74-4525-8023-165CF66EB83C}">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28587349-A0B9-4843-ACEB-B72C18C44F86}">
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28587349-A0B9-4843-ACEB-B72C18C44F86}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,7 +644,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -773,58 +652,114 @@
     </row>
     <row r="2" spans="1:2" ht="48" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="24" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="24" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="48" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="48" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>29</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
